--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,11 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>extraction_status</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>created_time_raw</t>
         </is>
       </c>
@@ -542,21 +547,21 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>alpina mira mis tres colecciones de mini ilumimochis mochisaurios y ahora jojo mochis</t>
+          <t>Ió quiero</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1764803282</v>
+        <v>1764881616</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45994.96391203703</v>
+        <v>45995.87055555556</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>23:08:02</t>
+          <t>20:53:36</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -573,9 +578,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579772273789059848', 'createTime': 1764803282, 'createTimeISO': '2025-12-03T23:08:02.000Z', 'text': 'alpina mira mis tres colecciones de mini ilumimochis mochisaurios y ahora jojo mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '680</t>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7580108745947530002', 'createTime': 1764881616, 'createTimeISO': '2025-12-04T20:53:36.000Z', 'text': 'Ió quiero', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7249048092845310981', 'uniqueId': 'jairo.piedrahita', 'avatarThumbnail': 'https</t>
         </is>
       </c>
     </row>
@@ -601,21 +607,21 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>estos son los mios</t>
+          <t>Alpinaaaaa plsss mi amiga y yo tenemos muchos mochis de todas las ediciones que han salido e hicimos un arbolito de navidad para colgar nuestros jojo mochis</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1764771019</v>
+        <v>1764810122</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45994.59049768518</v>
+        <v>45995.0430787037</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>14:10:19</t>
+          <t>01:02:02</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -632,9 +638,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579633767775240977', 'createTime': 1764771019, 'createTimeISO': '2025-12-03T14:10:19.000Z', 'text': 'estos son los mios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7425476092948022278', 'uniqueId': 'joelsantiagosoler', 'avatarThumbnai</t>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579801653270250256', 'createTime': 1764810122, 'createTimeISO': '2025-12-04T01:02:02.000Z', 'text': 'Alpinaaaaa plsss mi amiga y yo tenemos muchos mochis de todas las ediciones que han salido e hicimos un arbolito de navidad para colgar nuestros jojo mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByA</t>
         </is>
       </c>
     </row>
@@ -660,25 +667,25 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>no e terminado los de mochisaurios y vienen con esto😭</t>
+          <t>alpina mira mis tres colecciones de mini ilumimochis mochisaurios y ahora jojo mochis</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1764721298</v>
+        <v>1764803282</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45994.01502314815</v>
-      </c>
-      <c r="I4" s="3" t="n">
+        <v>45994.96391203703</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>45994</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>00:21:38</t>
+          <t>23:08:02</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -691,9 +698,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579420140871009025', 'createTime': 1764721298, 'createTimeISO': '2025-12-03T00:21:38.000Z', 'text': 'no e terminado los de mochisaurios y vienen con esto😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365524033193427973', 'uniqueId': '</t>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579772273789059848', 'createTime': 1764803282, 'createTimeISO': '2025-12-03T23:08:02.000Z', 'text': 'alpina mira mis tres colecciones de mini ilumimochis mochisaurios y ahora jojo mochis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '680</t>
         </is>
       </c>
     </row>
@@ -719,21 +727,21 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>mojon Mochis?</t>
+          <t>2 parte</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1764708463</v>
+        <v>1764793209</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45993.86646990741</v>
+        <v>45994.84732638889</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20:47:43</t>
+          <t>20:20:09</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -750,9 +758,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579365040579691271', 'createTime': 1764708463, 'createTimeISO': '2025-12-02T20:47:43.000Z', 'text': 'mojon Mochis?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7506258005831959570', 'uniqueId': 'megurub4chira0', 'avatarThumbnail': 'htt</t>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579729020258992916', 'createTime': 1764793209, 'createTimeISO': '2025-12-03T20:20:09.000Z', 'text': '2 parte', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7556059976089175047', 'uniqueId': 'salo26375', 'avatarThumbnail': 'https://p16-si</t>
         </is>
       </c>
     </row>
@@ -778,25 +787,25 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>alpina saca de nuevo ilumimochis</t>
+          <t>estos son los mios</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1764689396</v>
+        <v>1764771019</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45993.64578703704</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>45993</v>
+        <v>45994.59049768518</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45994</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>15:29:56</t>
+          <t>14:10:19</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -809,9 +818,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579283220207305479', 'createTime': 1764689396, 'createTimeISO': '2025-12-02T15:29:56.000Z', 'text': 'alpina saca de nuevo ilumimochis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369310731223680006', 'uniqueId': 'sofia1273262282228', </t>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579633767775240977', 'createTime': 1764771019, 'createTimeISO': '2025-12-03T14:10:19.000Z', 'text': 'estos son los mios', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7425476092948022278', 'uniqueId': 'joelsantiagosoler', 'avatarThumbnai</t>
         </is>
       </c>
     </row>
@@ -837,25 +847,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>mirrre</t>
+          <t>no e terminado los de mochisaurios y vienen con esto😭</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1764687936</v>
+        <v>1764721298</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45993.62888888889</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>45993</v>
+        <v>45994.01502314815</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>45994</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>15:05:36</t>
+          <t>00:21:38</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -868,9 +878,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579276922779927317', 'createTime': 1764687936, 'createTimeISO': '2025-12-02T15:05:36.000Z', 'text': 'mirrre', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511416596604437522', 'uniqueId': 'brainrotymochi', 'avatarThumbnail': 'https://p1</t>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579420140871009025', 'createTime': 1764721298, 'createTimeISO': '2025-12-03T00:21:38.000Z', 'text': 'no e terminado los de mochisaurios y vienen con esto😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365524033193427973', 'uniqueId': '</t>
         </is>
       </c>
     </row>
@@ -896,21 +907,21 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>jojo que?</t>
+          <t>mojon Mochis?</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1764656229</v>
+        <v>1764708463</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45993.26190972222</v>
-      </c>
-      <c r="I8" s="3" t="n">
+        <v>45993.86646990741</v>
+      </c>
+      <c r="I8" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>06:17:09</t>
+          <t>20:47:43</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -927,9 +938,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579140744708227848', 'createTime': 1764656229, 'createTimeISO': '2025-12-02T06:17:09.000Z', 'text': 'jojo que?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6814681949610542086', 'uniqueId': 'jhonjo_sebastian', 'avatarThumbnail': 'https</t>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579365040579691271', 'createTime': 1764708463, 'createTimeISO': '2025-12-02T20:47:43.000Z', 'text': 'mojon Mochis?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7506258005831959570', 'uniqueId': 'megurub4chira0', 'avatarThumbnail': 'htt</t>
         </is>
       </c>
     </row>
@@ -955,21 +967,21 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Envía Los Mochis a cartagena</t>
+          <t>yo tengi a lucerita</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1764639716</v>
+        <v>1764695431</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45993.07078703704</v>
+        <v>45993.71563657407</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>45993</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>01:41:56</t>
+          <t>17:10:31</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -986,9 +998,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579069817504776978', 'createTime': 1764639716, 'createTimeISO': '2025-12-02T01:41:56.000Z', 'text': 'Envía Los Mochis a cartagena', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7344412206279672837', 'uniqueId': 'isha_v1', 'avatarThumbnai</t>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579308374593716993', 'createTime': 1764695431, 'createTimeISO': '2025-12-02T17:10:31.000Z', 'text': 'yo tengi a lucerita', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7327054053326144517', 'uniqueId': 'valerysofia_2716', 'avatarThumbnai</t>
         </is>
       </c>
     </row>
@@ -1014,277 +1027,282 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
+          <t>alpina saca de nuevo ilumimochis</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1764689396</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45993.64578703704</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15:29:56</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579283220207305479', 'createTime': 1764689396, 'createTimeISO': '2025-12-02T15:29:56.000Z', 'text': 'alpina saca de nuevo ilumimochis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369310731223680006', 'uniqueId': 'sofia1273262282228', </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>mirrre</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1764687936</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45993.62888888889</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>15:05:36</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579276922779927317', 'createTime': 1764687936, 'createTimeISO': '2025-12-02T15:05:36.000Z', 'text': 'mirrre', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511416596604437522', 'uniqueId': 'brainrotymochi', 'avatarThumbnail': 'https://p1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>jojo que?</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1764656229</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45993.26190972222</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>06:17:09</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579140744708227848', 'createTime': 1764656229, 'createTimeISO': '2025-12-02T06:17:09.000Z', 'text': 'jojo que?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6814681949610542086', 'uniqueId': 'jhonjo_sebastian', 'avatarThumbnail': 'https</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Envía Los Mochis a cartagena</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1764639716</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45993.07078703704</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>01:41:56</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7579069817504776978', 'createTime': 1764639716, 'createTimeISO': '2025-12-02T01:41:56.000Z', 'text': 'Envía Los Mochis a cartagena', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7344412206279672837', 'uniqueId': 'isha_v1', 'avatarThumbnai</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>cómo que ya no hay mochisaurios😭
 (me faltaban 7 para la colección</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G14" t="n">
         <v>1764619124</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H14" s="2" t="n">
         <v>45992.8324537037</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45992</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>19:58:44</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578981343041635073', 'createTime': 1764619124, 'createTimeISO': '2025-12-01T19:58:44.000Z', 'text': 'cómo que ya no hay mochisaurios😭\n(me faltaban 7 para la colección', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7368157374302946309', </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>gabiii nos das el listado con los nombres?</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1764614330</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>45992.7769675926</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>45992</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>18:38:50</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578960787096716052', 'createTime': 1764614330, 'createTimeISO': '2025-12-01T18:38:50.000Z', 'text': 'gabiii nos das el listado con los nombres?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7180378806585394182', 'uniqueId': 'jaco.bolope</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>yo pensé que eran de plástico 🫠</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1764613870</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45992.77164351852</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>45992</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>18:31:10</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578958823268991752', 'createTime': 1764613870, 'createTimeISO': '2025-12-01T18:31:10.000Z', 'text': 'yo pensé que eran de plástico 🫠', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6864222495504499717', 'uniqueId': 'fernandagt1', 'avatarT</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>en mi pueblo no venden😭</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1764562896</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>45992.18166666666</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>45992</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>04:21:36</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578739895129293584', 'createTime': 1764562896, 'createTimeISO': '2025-12-01T04:21:36.000Z', 'text': 'en mi pueblo no venden😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7182722481584391173', 'uniqueId': 'helennaiara.como', 'avatarThum</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>amiga estoy triste por qué me sale repetir los Mochis saurios 😞😭</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1764559083</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>45992.13753472222</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>45992</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>03:18:03</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578723503285764881', 'createTime': 1764559083, 'createTimeISO': '2025-12-01T03:18:03.000Z', 'text': 'amiga estoy triste por qué me sale repetir los Mochis saurios 😞😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7484369620745782292', 'u</t>
         </is>
       </c>
     </row>
@@ -1310,28 +1328,28 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>hoy me toco pepetinaaaaaa🥰🥰🥰</t>
+          <t>gabiii nos das el listado con los nombres?</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1764558514</v>
+        <v>1764614330</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45992.13094907408</v>
-      </c>
-      <c r="I15" s="3" t="n">
+        <v>45992.7769675926</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>03:08:34</t>
+          <t>18:38:50</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1341,9 +1359,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578721028278862608', 'createTime': 1764558514, 'createTimeISO': '2025-12-01T03:08:34.000Z', 'text': 'hoy me toco pepetinaaaaaa🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7405734042824066054', 'uniqueId': 'emmanuel130816', 'avatarT</t>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578960787096716052', 'createTime': 1764614330, 'createTimeISO': '2025-12-01T18:38:50.000Z', 'text': 'gabiii nos das el listado con los nombres?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7180378806585394182', 'uniqueId': 'jaco.bolope</t>
         </is>
       </c>
     </row>
@@ -1369,28 +1388,28 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>En mi cerro no han llegadoo</t>
+          <t>yo pensé que eran de plástico 🫠</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1764552310</v>
+        <v>1764613870</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45992.05914351852</v>
-      </c>
-      <c r="I16" s="3" t="n">
+        <v>45992.77164351852</v>
+      </c>
+      <c r="I16" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>01:25:10</t>
+          <t>18:31:10</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -1400,9 +1419,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578694371313156872', 'createTime': 1764552310, 'createTimeISO': '2025-12-01T01:25:10.000Z', 'text': 'En mi cerro no han llegadoo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432865718230877189', 'uniqueId': '__nadiee00', 'avatarThumbn</t>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578958823268991752', 'createTime': 1764613870, 'createTimeISO': '2025-12-01T18:31:10.000Z', 'text': 'yo pensé que eran de plástico 🫠', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6864222495504499717', 'uniqueId': 'fernandagt1', 'avatarT</t>
         </is>
       </c>
     </row>
@@ -1428,21 +1448,21 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>están ubicados en envia??🐮💙🩵</t>
+          <t>en mi pueblo no venden😭</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1764526008</v>
+        <v>1764562896</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45991.75472222222</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>45991</v>
+        <v>45992.18166666666</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>18:06:48</t>
+          <t>04:21:36</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1459,9 +1479,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578581438062232328', 'createTime': 1764526008, 'createTimeISO': '2025-11-30T18:06:48.000Z', 'text': 'están ubicados en envia??🐮💙\U0001fa75', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7113764150384067589', 'uniqueId': 'as10...7', 'avat</t>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578739895129293584', 'createTime': 1764562896, 'createTimeISO': '2025-12-01T04:21:36.000Z', 'text': 'en mi pueblo no venden😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7182722481584391173', 'uniqueId': 'helennaiara.como', 'avatarThum</t>
         </is>
       </c>
     </row>
@@ -1487,28 +1508,28 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaby estoy feliz pero triste , yo solo conseguí cuatro y estoy feliz de aver conseguido , son re lindos pero en el guaviare ( donde yo vivo ) casi no llega mercancía de alpina , en especial yogo premio lo más probable es q no pueda terminar mi colección 🫤</t>
+          <t>amiga estoy triste por qué me sale repetir los Mochis saurios 😞😭</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1764525361</v>
+        <v>1764559083</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45991.7472337963</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>45991</v>
+        <v>45992.13753472222</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17:56:01</t>
+          <t>03:18:03</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1518,9 +1539,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578578664444035841', 'createTime': 1764525361, 'createTimeISO': '2025-11-30T17:56:01.000Z', 'text': 'Gaby estoy feliz pero triste , yo solo conseguí cuatro y estoy feliz de aver conseguido , son re lindos pero en el guaviare ( donde yo vivo ) casi no llega mercancía de alpina , en especial yogo premio lo más </t>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578723503285764881', 'createTime': 1764559083, 'createTimeISO': '2025-12-01T03:18:03.000Z', 'text': 'amiga estoy triste por qué me sale repetir los Mochis saurios 😞😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7484369620745782292', 'u</t>
         </is>
       </c>
     </row>
@@ -1546,25 +1568,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A mi hermanito le salió esto todo feo y todo mal pintado 😢</t>
+          <t>hoy me toco pepetinaaaaaa🥰🥰🥰</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1764467022</v>
+        <v>1764558514</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45991.07201388889</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>45991</v>
+        <v>45992.13094907408</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>01:43:42</t>
+          <t>03:08:34</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1577,9 +1599,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578328072371553032', 'createTime': 1764467022, 'createTimeISO': '2025-11-30T01:43:42.000Z', 'text': 'A mi hermanito le salió esto todo feo y todo mal pintado 😢', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6971655267432449030', 'uniqueI</t>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578721028278862608', 'createTime': 1764558514, 'createTimeISO': '2025-12-01T03:08:34.000Z', 'text': 'hoy me toco pepetinaaaaaa🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7405734042824066054', 'uniqueId': 'emmanuel130816', 'avatarT</t>
         </is>
       </c>
     </row>
@@ -1605,21 +1628,21 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bueno, los señores de alpina se están demorando en llegar a la tiendita del barrio mío 🥺</t>
+          <t>En mi cerro no han llegadoo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1764383825</v>
+        <v>1764552310</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45990.10908564815</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>45990</v>
+        <v>45992.05914351852</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>02:37:05</t>
+          <t>01:25:10</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1636,9 +1659,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577970735807038229', 'createTime': 1764383825, 'createTimeISO': '2025-11-29T02:37:05.000Z', 'text': 'Bueno, los señores de alpina se están demorando en llegar a la tiendita del barrio mío 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578694371313156872', 'createTime': 1764552310, 'createTimeISO': '2025-12-01T01:25:10.000Z', 'text': 'En mi cerro no han llegadoo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432865718230877189', 'uniqueId': '__nadiee00', 'avatarThumbn</t>
         </is>
       </c>
     </row>
@@ -1664,28 +1688,28 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>oye y de pronto no regresarán los Mochis originales los primeros, porque solo tenía un pinsanchez y lo perdí 😭</t>
+          <t>los amo pero algunos no tienen carita 😔 y eso era lo que les daba mucha vida anotalo y comunicalo</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1764353208</v>
+        <v>1764543059</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45989.75472222222</v>
+        <v>45991.95207175926</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>45989</v>
+        <v>45991</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>18:06:48</t>
+          <t>22:50:59</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -1695,9 +1719,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577839292148384532', 'createTime': 1764353208, 'createTimeISO': '2025-11-28T18:06:48.000Z', 'text': 'oye y de pronto no regresarán los Mochis originales los primeros, porque solo tenía un pinsanchez y lo perdí 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComm</t>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578654619976696583', 'createTime': 1764543059, 'createTimeISO': '2025-11-30T22:50:59.000Z', 'text': 'los amo pero algunos no tienen carita 😔 y eso era lo que les daba mucha vida anotalo y comunicalo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0,</t>
         </is>
       </c>
     </row>
@@ -1723,25 +1748,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>QUEREMOS PARTE 2</t>
+          <t>aquí en cali no los encuentro 😭🥺</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1764188483</v>
+        <v>1764531881</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45987.84818287037</v>
+        <v>45991.82269675926</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20:21:23</t>
+          <t>19:44:41</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1754,9 +1779,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577131779736224520', 'createTime': 1764188483, 'createTimeISO': '2025-11-26T20:21:23.000Z', 'text': 'QUEREMOS PARTE 2', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId': 'lindaisa1215oficiaal', 'avatarThumbna</t>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578606616863752980', 'createTime': 1764531881, 'createTimeISO': '2025-11-30T19:44:41.000Z', 'text': 'aquí en cali no los encuentro 😭🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7502210127874360321', 'uniqueId': 'salito5505', 'avatarT</t>
         </is>
       </c>
     </row>
@@ -1782,25 +1808,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>muy bellos</t>
+          <t>están ubicados en envia??🐮💙🩵</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1764176119</v>
+        <v>1764526008</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45987.70508101852</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>45987</v>
+        <v>45991.75472222222</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>16:55:19</t>
+          <t>18:06:48</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1813,9 +1839,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577078692041769735', 'createTime': 1764176119, 'createTimeISO': '2025-11-26T16:55:19.000Z', 'text': 'muy bellos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId': 'lindaisa1215oficiaal', 'avatarThumbnail': '</t>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578581438062232328', 'createTime': 1764526008, 'createTimeISO': '2025-11-30T18:06:48.000Z', 'text': 'están ubicados en envia??🐮💙\U0001fa75', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7113764150384067589', 'uniqueId': 'as10...7', 'avat</t>
         </is>
       </c>
     </row>
@@ -1841,28 +1868,28 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ahora son más fáciles de completar por qué son menoooss🥰🥰</t>
+          <t>Gaby estoy feliz pero triste , yo solo conseguí cuatro y estoy feliz de aver conseguido , son re lindos pero en el guaviare ( donde yo vivo ) casi no llega mercancía de alpina , en especial yogo premio lo más probable es q no pueda terminar mi colección 🫤</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1764176110</v>
+        <v>1764525361</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45987.70497685186</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>45987</v>
+        <v>45991.7472337963</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16:55:10</t>
+          <t>17:56:01</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -1872,9 +1899,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577078642225906450', 'createTime': 1764176110, 'createTimeISO': '2025-11-26T16:55:10.000Z', 'text': 'ahora son más fáciles de completar por qué son menoooss🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId</t>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578578664444035841', 'createTime': 1764525361, 'createTimeISO': '2025-11-30T17:56:01.000Z', 'text': 'Gaby estoy feliz pero triste , yo solo conseguí cuatro y estoy feliz de aver conseguido , son re lindos pero en el guaviare ( donde yo vivo ) casi no llega mercancía de alpina , en especial yogo premio lo más </t>
         </is>
       </c>
     </row>
@@ -1900,25 +1928,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Alpinaaaa mira mis Jojo mochiiiss</t>
+          <t>A mi hermanito le salió esto todo feo y todo mal pintado 😢</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1764175957</v>
+        <v>1764467022</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45987.70320601852</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>45987</v>
+        <v>45991.07201388889</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>16:52:37</t>
+          <t>01:43:42</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1931,9 +1959,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577078000165651218', 'createTime': 1764175957, 'createTimeISO': '2025-11-26T16:52:37.000Z', 'text': 'Alpinaaaa mira mis Jojo mochiiiss', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId': 'lindaisa1215oficiaal</t>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7578328072371553032', 'createTime': 1764467022, 'createTimeISO': '2025-11-30T01:43:42.000Z', 'text': 'A mi hermanito le salió esto todo feo y todo mal pintado 😢', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6971655267432449030', 'uniqueI</t>
         </is>
       </c>
     </row>
@@ -1959,28 +1988,28 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>yo quiero para mí casaa</t>
+          <t>Bueno, los señores de alpina se están demorando en llegar a la tiendita del barrio mío 🥺</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1764157878</v>
+        <v>1764383825</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45987.49395833333</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>45987</v>
+        <v>45990.10908564815</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>45990</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11:51:18</t>
+          <t>02:37:05</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
@@ -1990,9 +2019,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577000361320465159', 'createTime': 1764157878, 'createTimeISO': '2025-11-26T11:51:18.000Z', 'text': 'yo quiero para mí casaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7428447431131857925', 'uniqueId': 'dario.bermudez.me', 'avatarThu</t>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577970735807038229', 'createTime': 1764383825, 'createTimeISO': '2025-11-29T02:37:05.000Z', 'text': 'Bueno, los señores de alpina se están demorando en llegar a la tiendita del barrio mío 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '</t>
         </is>
       </c>
     </row>
@@ -2018,28 +2048,28 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>alpina adivina que</t>
+          <t>a mí me tocó licerita y a un elfo no me acuerdo del nombre</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1764126497</v>
+        <v>1764383655</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45987.13075231481</v>
+        <v>45990.10711805556</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>45987</v>
+        <v>45990</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>03:08:17</t>
+          <t>02:34:15</t>
         </is>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
@@ -2049,9 +2079,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576865549219218183', 'createTime': 1764126497, 'createTimeISO': '2025-11-26T03:08:17.000Z', 'text': 'alpina adivina que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7465180798346675201', 'uniqueId': 'mafesita502', 'avatarThumbnail': 'h</t>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577970029556974352', 'createTime': 1764383655, 'createTimeISO': '2025-11-29T02:34:15.000Z', 'text': 'a mí me tocó licerita y a un elfo no me acuerdo del nombre', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7390427832960451589', 'uniqueI</t>
         </is>
       </c>
     </row>
@@ -2077,28 +2108,28 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>✨✨Gabyyyyyy me encantaron todos los jojo mochis de navidad quiero todos voy hacer un arbolito🎄 con todos los jojo mochis hayyy los ame🩵💙💖💖💗</t>
+          <t>oye y de pronto no regresarán los Mochis originales los primeros, porque solo tenía un pinsanchez y lo perdí 😭</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1764119795</v>
+        <v>1764353208</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45987.05318287037</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>45987</v>
+        <v>45989.75472222222</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45989</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>01:16:35</t>
+          <t>18:06:48</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
@@ -2108,9 +2139,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576836748187566855', 'createTime': 1764119795, 'createTimeISO': '2025-11-26T01:16:35.000Z', 'text': '✨✨Gabyyyyyy me encantaron todos los jojo mochis de navidad quiero todos voy hacer un arbolito🎄 con todos los jojo mochis hayyy los ame\U0001fa75💙💖💖💗', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': </t>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577839292148384532', 'createTime': 1764353208, 'createTimeISO': '2025-11-28T18:06:48.000Z', 'text': 'oye y de pronto no regresarán los Mochis originales los primeros, porque solo tenía un pinsanchez y lo perdí 😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyComm</t>
         </is>
       </c>
     </row>
@@ -2136,21 +2168,21 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>como así?? nooo no termine mi colección:(</t>
+          <t>QUEREMOS PARTE 2</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1764037242</v>
+        <v>1764188483</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45986.09770833333</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>45986</v>
+        <v>45987.84818287037</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45987</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>02:20:42</t>
+          <t>20:21:23</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -2167,9 +2199,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576482175035228945', 'createTime': 1764037242, 'createTimeISO': '2025-11-25T02:20:42.000Z', 'text': 'como así?? nooo no termine mi colección:(', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7458253407871288325', 'uniqueId': 'm.e.t106', '</t>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577131779736224520', 'createTime': 1764188483, 'createTimeISO': '2025-11-26T20:21:23.000Z', 'text': 'QUEREMOS PARTE 2', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId': 'lindaisa1215oficiaal', 'avatarThumbna</t>
         </is>
       </c>
     </row>
@@ -2195,21 +2228,21 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Están lindos pero cuando van a salir que mi hermano esta desesperado y triste por ustedes</t>
+          <t>muy bellos</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1764030434</v>
+        <v>1764176119</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45986.01891203703</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>45986</v>
+        <v>45987.70508101852</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45987</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:27:14</t>
+          <t>16:55:19</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2226,9 +2259,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576452925993435920', 'createTime': 1764030434, 'createTimeISO': '2025-11-25T00:27:14.000Z', 'text': 'Están lindos pero cuando van a salir que mi hermano esta desesperado y triste por ustedes', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': </t>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577078692041769735', 'createTime': 1764176119, 'createTimeISO': '2025-11-26T16:55:19.000Z', 'text': 'muy bellos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId': 'lindaisa1215oficiaal', 'avatarThumbnail': '</t>
         </is>
       </c>
     </row>
@@ -2254,21 +2288,21 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>as otro video de otros Jo Jo Mochis diciendo los nombres</t>
+          <t>ahora son más fáciles de completar por qué son menoooss🥰🥰</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1764023084</v>
+        <v>1764176110</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45985.9338425926</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>45985</v>
+        <v>45987.70497685186</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45987</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>22:24:44</t>
+          <t>16:55:10</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2285,9 +2319,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576420292529619728', 'createTime': 1764023084, 'createTimeISO': '2025-11-24T22:24:44.000Z', 'text': 'as otro video de otros Jo Jo Mochis diciendo los nombres', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7497062430197302279', 'uniqueId'</t>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577078642225906450', 'createTime': 1764176110, 'createTimeISO': '2025-11-26T16:55:10.000Z', 'text': 'ahora son más fáciles de completar por qué son menoooss🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId</t>
         </is>
       </c>
     </row>
@@ -2313,25 +2348,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>eso pasa.🥺</t>
+          <t>Alpinaaaa mira mis Jojo mochiiiss</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1764021005</v>
+        <v>1764175957</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45985.9097800926</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>45985</v>
+        <v>45987.70320601852</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45987</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>21:50:05</t>
+          <t>16:52:37</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2344,9 +2379,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576412442495779592', 'createTime': 1764021005, 'createTimeISO': '2025-11-24T21:50:05.000Z', 'text': 'eso pasa.🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7313016280142119942', 'uniqueId': 'alonso.fabra.nava', 'avatarThumbnail': 'htt</t>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577078000165651218', 'createTime': 1764175957, 'createTimeISO': '2025-11-26T16:52:37.000Z', 'text': 'Alpinaaaa mira mis Jojo mochiiiss', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId': 'lindaisa1215oficiaal</t>
         </is>
       </c>
     </row>
@@ -2372,21 +2408,21 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>hola aaaaa me tocó comprar porque solo tenía 10 y estos no los tenía y me salieron los que más quería y una pregunta si compré uno y lo tengo repetido en el empaque y no fue en el Oxxo lo puedo cambiar</t>
+          <t>yo quiero para mí casaa</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1764012941</v>
+        <v>1764157878</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45985.81644675926</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>45985</v>
+        <v>45987.49395833333</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45987</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>19:35:41</t>
+          <t>11:51:18</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2403,9 +2439,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576377801965126401', 'createTime': 1764012941, 'createTimeISO': '2025-11-24T19:35:41.000Z', 'text': 'hola aaaaa me tocó comprar porque solo tenía 10 y estos no los tenía y me salieron los que más quería y una pregunta si compré uno y lo tengo repetido en el empaque y no fue en el Oxxo lo puedo cambiar', 'digg</t>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7577000361320465159', 'createTime': 1764157878, 'createTimeISO': '2025-11-26T11:51:18.000Z', 'text': 'yo quiero para mí casaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7428447431131857925', 'uniqueId': 'dario.bermudez.me', 'avatarThu</t>
         </is>
       </c>
     </row>
@@ -2431,28 +2468,28 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gaby crees que fue una obsesion💜</t>
+          <t>alpina adivina que</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1763945915</v>
+        <v>1764126497</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45985.04068287037</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>45985</v>
+        <v>45987.13075231481</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45987</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>00:58:35</t>
+          <t>03:08:17</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
@@ -2462,9 +2499,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576089954624144136', 'createTime': 1763945915, 'createTimeISO': '2025-11-24T00:58:35.000Z', 'text': 'Gaby crees que fue una obsesion💜', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7383122756139877382', 'uniqueId': 'i_am_brith', 'avatarT</t>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576865549219218183', 'createTime': 1764126497, 'createTimeISO': '2025-11-26T03:08:17.000Z', 'text': 'alpina adivina que', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7465180798346675201', 'uniqueId': 'mafesita502', 'avatarThumbnail': 'h</t>
         </is>
       </c>
     </row>
@@ -2490,28 +2528,28 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>GRACIASSS ahora si no me los pueden robar</t>
+          <t>✨✨Gabyyyyyy me encantaron todos los jojo mochis de navidad quiero todos voy hacer un arbolito🎄 con todos los jojo mochis hayyy los ame🩵💙💖💖💗</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1763944615</v>
+        <v>1764119795</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45985.02563657407</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>45985</v>
+        <v>45987.05318287037</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>45987</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:36:55</t>
+          <t>01:16:35</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
@@ -2521,9 +2559,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576084370222596872', 'createTime': 1763944615, 'createTimeISO': '2025-11-24T00:36:55.000Z', 'text': 'GRACIASSS ahora si no me los pueden robar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7410135800107123718', 'uniqueId': '_mel_.garcia</t>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576836748187566855', 'createTime': 1764119795, 'createTimeISO': '2025-11-26T01:16:35.000Z', 'text': '✨✨Gabyyyyyy me encantaron todos los jojo mochis de navidad quiero todos voy hacer un arbolito🎄 con todos los jojo mochis hayyy los ame\U0001fa75💙💖💖💗', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': </t>
         </is>
       </c>
     </row>
@@ -2549,25 +2588,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>despues de los jojomochis pongan ilumimochisaurios o los jojoilumimochis ☺️</t>
+          <t>como así?? nooo no termine mi colección:(</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1763935034</v>
+        <v>1764037242</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45984.91474537037</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>45984</v>
+        <v>45986.09770833333</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45986</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>21:57:14</t>
+          <t>02:20:42</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2580,9 +2619,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576042346165371669', 'createTime': 1763935034, 'createTimeISO': '2025-11-23T21:57:14.000Z', 'text': 'despues de los jojomochis pongan ilumimochisaurios o los jojoilumimochis ☺️', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6818699789120</t>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576482175035228945', 'createTime': 1764037242, 'createTimeISO': '2025-11-25T02:20:42.000Z', 'text': 'como así?? nooo no termine mi colección:(', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7458253407871288325', 'uniqueId': 'm.e.t106', '</t>
         </is>
       </c>
     </row>
@@ -2608,21 +2648,21 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>dónde los puedo consegir saludos</t>
+          <t>Están lindos pero cuando van a salir que mi hermano esta desesperado y triste por ustedes</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1763907605</v>
+        <v>1764030434</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45984.5972800926</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>45984</v>
+        <v>45986.01891203703</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45986</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>14:20:05</t>
+          <t>00:27:14</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2639,9 +2679,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575925135203468039', 'createTime': 1763907605, 'createTimeISO': '2025-11-23T14:20:05.000Z', 'text': 'dónde los puedo consegir saludos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432364526920483846', 'uniqueId': 'user5146381209341', '</t>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576452925993435920', 'createTime': 1764030434, 'createTimeISO': '2025-11-25T00:27:14.000Z', 'text': 'Están lindos pero cuando van a salir que mi hermano esta desesperado y triste por ustedes', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': </t>
         </is>
       </c>
     </row>
@@ -2667,21 +2708,21 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>hola mi hijo los ama y tiene todas las colecciones de mochis</t>
+          <t>as otro video de otros Jo Jo Mochis diciendo los nombres</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1763857769</v>
+        <v>1764023084</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45984.02047453704</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>45984</v>
+        <v>45985.9338425926</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>45985</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:29:29</t>
+          <t>22:24:44</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2698,9 +2739,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575711302846481170', 'createTime': 1763857769, 'createTimeISO': '2025-11-23T00:29:29.000Z', 'text': 'hola mi hijo los ama y tiene todas las colecciones de mochis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '241076745070747648', 'unique</t>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576420292529619728', 'createTime': 1764023084, 'createTimeISO': '2025-11-24T22:24:44.000Z', 'text': 'as otro video de otros Jo Jo Mochis diciendo los nombres', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7497062430197302279', 'uniqueId'</t>
         </is>
       </c>
     </row>
@@ -2726,28 +2768,28 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>¿porque no después haces la gelatina con leche condensada? sería delicioso 😋🤤</t>
+          <t>eso pasa.🥺</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1763855585</v>
+        <v>1764021005</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45983.99519675926</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>45983</v>
+        <v>45985.9097800926</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45985</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>23:53:05</t>
+          <t>21:50:05</t>
         </is>
       </c>
       <c r="K39" t="n">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
@@ -2757,9 +2799,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575701909924184833', 'createTime': 1763855585, 'createTimeISO': '2025-11-22T23:53:05.000Z', 'text': '¿porque no después haces la gelatina con leche condensada? sería delicioso 😋🤤', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '71559645574</t>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576412442495779592', 'createTime': 1764021005, 'createTimeISO': '2025-11-24T21:50:05.000Z', 'text': 'eso pasa.🥺', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7313016280142119942', 'uniqueId': 'alonso.fabra.nava', 'avatarThumbnail': 'htt</t>
         </is>
       </c>
     </row>
@@ -2785,454 +2828,462 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
+          <t>hola aaaaa me tocó comprar porque solo tenía 10 y estos no los tenía y me salieron los que más quería y una pregunta si compré uno y lo tengo repetido en el empaque y no fue en el Oxxo lo puedo cambiar</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1764012941</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45985.81644675926</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>19:35:41</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576377801965126401', 'createTime': 1764012941, 'createTimeISO': '2025-11-24T19:35:41.000Z', 'text': 'hola aaaaa me tocó comprar porque solo tenía 10 y estos no los tenía y me salieron los que más quería y una pregunta si compré uno y lo tengo repetido en el empaque y no fue en el Oxxo lo puedo cambiar', 'digg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Gaby crees que fue una obsesion💜</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1763945915</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45985.04068287037</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>00:58:35</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576089954624144136', 'createTime': 1763945915, 'createTimeISO': '2025-11-24T00:58:35.000Z', 'text': 'Gaby crees que fue una obsesion💜', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7383122756139877382', 'uniqueId': 'i_am_brith', 'avatarT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>GRACIASSS ahora si no me los pueden robar</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1763944615</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45985.02563657407</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>00:36:55</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576084370222596872', 'createTime': 1763944615, 'createTimeISO': '2025-11-24T00:36:55.000Z', 'text': 'GRACIASSS ahora si no me los pueden robar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7410135800107123718', 'uniqueId': '_mel_.garcia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>despues de los jojomochis pongan ilumimochisaurios o los jojoilumimochis ☺️</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1763935034</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45984.91474537037</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>21:57:14</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7576042346165371669', 'createTime': 1763935034, 'createTimeISO': '2025-11-23T21:57:14.000Z', 'text': 'despues de los jojomochis pongan ilumimochisaurios o los jojoilumimochis ☺️', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6818699789120</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>dónde los puedo consegir saludos</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1763907605</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45984.5972800926</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>14:20:05</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575925135203468039', 'createTime': 1763907605, 'createTimeISO': '2025-11-23T14:20:05.000Z', 'text': 'dónde los puedo consegir saludos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7432364526920483846', 'uniqueId': 'user5146381209341', '</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>hola mi hijo los ama y tiene todas las colecciones de mochis</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1763857769</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45984.02047453704</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>00:29:29</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575711302846481170', 'createTime': 1763857769, 'createTimeISO': '2025-11-23T00:29:29.000Z', 'text': 'hola mi hijo los ama y tiene todas las colecciones de mochis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '241076745070747648', 'unique</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>¿porque no después haces la gelatina con leche condensada? sería delicioso 😋🤤</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1763855585</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45983.99519675926</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>23:53:05</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575701909924184833', 'createTime': 1763855585, 'createTimeISO': '2025-11-22T23:53:05.000Z', 'text': '¿porque no después haces la gelatina con leche condensada? sería delicioso 😋🤤', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '71559645574</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>alpina porque no hacen un calendario de adviento de monchis, nos harían felices pls
 los quiero</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G47" t="n">
         <v>1763853447</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H47" s="2" t="n">
         <v>45983.97045138889</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I47" s="2" t="n">
         <v>45983</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>23:17:27</t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575692796498477842', 'createTime': 1763853447, 'createTimeISO': '2025-11-22T23:17:27.000Z', 'text': 'alpina porque no hacen un calendario de adviento de monchis, nos harían felices pls\nlos quiero', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, '</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>SI QUEREMOS PARTE 2 !!!!</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1763807606</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>45983.43988425926</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>45983</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>10:33:26</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575495939713630994', 'createTime': 1763807606, 'createTimeISO': '2025-11-22T10:33:26.000Z', 'text': 'SI QUEREMOS PARTE 2 !!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId': 'lindaisa1215oficiaal', 'avata</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>🥰que lindos</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1763765536</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>45982.95296296296</v>
-      </c>
-      <c r="I42" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>22:52:16</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575315160640176926', 'createTime': 1763765536, 'createTimeISO': '2025-11-21T22:52:16.000Z', 'text': '🥰que lindos', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7180346641907581994', 'uniqueId': 'user909772812', 'avatarThumbnail': 'https:</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Hola alpina veo todos sus videos🤗</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1763751296</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>45982.78814814815</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>18:54:56</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575254072488575751', 'createTime': 1763751296, 'createTimeISO': '2025-11-21T18:54:56.000Z', 'text': 'Hola alpina veo todos sus videos🤗', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7324904439793533957', 'uniqueId': 'luz.dary.sarmient0',</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>cómo es navidad bajenle el precio</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>1763749917</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>45982.7721875</v>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>18:31:57</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>47</v>
-      </c>
-      <c r="L44" t="n">
-        <v>12</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575248156511535890', 'createTime': 1763749917, 'createTimeISO': '2025-11-21T18:31:57.000Z', 'text': 'cómo es navidad bajenle el precio', 'diggCount': 47, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 12, 'uid': '7535542571990828050', 'uniqueId': 'eli762301', 'avata</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>cuando van a decir los 5 ganadores 😳</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1763748786</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>45982.75909722222</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>18:13:06</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575243307303912199', 'createTime': 1763748786, 'createTimeISO': '2025-11-21T18:13:06.000Z', 'text': 'cuando van a decir los 5 ganadores 😳', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7541216473755354119', 'uniqueId': 'fanny_s4nchzzzz',</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>ya quisiera tener todos los Mochis de todas las colecciones 😭😭😭</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1763746713</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>45982.73510416667</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>17:38:33</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575234409000321810', 'createTime': 1763746713, 'createTimeISO': '2025-11-21T17:38:33.000Z', 'text': 'ya quisiera tener todos los Mochis de todas las colecciones 😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7437700706754446391', 'un</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>gaby los jojo mochis tambien son de silicona estirables asi como los mochis normales????</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>1763746422</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>45982.73173611111</v>
-      </c>
-      <c r="I47" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>17:33:42</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>4</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M47" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575232369352606485', 'createTime': 1763746422, 'createTimeISO': '2025-11-21T17:33:42.000Z', 'text': 'gaby los jojo mochis tambien son de silicona estirables asi como los mochis normales????', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '</t>
         </is>
       </c>
     </row>
@@ -3258,28 +3309,28 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>en dónde se encuentran?</t>
+          <t>SI QUEREMOS PARTE 2 !!!!</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1763746050</v>
+        <v>1763807606</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45982.72743055555</v>
-      </c>
-      <c r="I48" s="3" t="n">
-        <v>45982</v>
+        <v>45983.43988425926</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>45983</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>17:27:30</t>
+          <t>10:33:26</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
@@ -3289,9 +3340,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575231567736619784', 'createTime': 1763746050, 'createTimeISO': '2025-11-21T17:27:30.000Z', 'text': 'en dónde se encuentran?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatar</t>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575495939713630994', 'createTime': 1763807606, 'createTimeISO': '2025-11-22T10:33:26.000Z', 'text': 'SI QUEREMOS PARTE 2 !!!!', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId': 'lindaisa1215oficiaal', 'avata</t>
         </is>
       </c>
     </row>
@@ -3317,25 +3369,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>se aplastan??✨</t>
+          <t>🥰que lindos</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1763740010</v>
+        <v>1763765536</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45982.65752314815</v>
-      </c>
-      <c r="I49" s="3" t="n">
+        <v>45982.95296296296</v>
+      </c>
+      <c r="I49" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>15:46:50</t>
+          <t>22:52:16</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -3348,9 +3400,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575205631398527762', 'createTime': 1763740010, 'createTimeISO': '2025-11-21T15:46:50.000Z', 'text': 'se aplastan??✨', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6967892470807299073', 'uniqueId': '12m_guada', 'avatarThumbnail': 'https:/</t>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575315160640176926', 'createTime': 1763765536, 'createTimeISO': '2025-11-21T22:52:16.000Z', 'text': '🥰que lindos', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7180346641907581994', 'uniqueId': 'user909772812', 'avatarThumbnail': 'https:</t>
         </is>
       </c>
     </row>
@@ -3376,28 +3429,28 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>yo creo que los jojo mochis vienen con tarjeta incluida en el yogo premio para identificarlos, asi como los mochizipis</t>
+          <t>Hola alpina veo todos sus videos🤗</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1763738985</v>
+        <v>1763751296</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45982.64565972222</v>
-      </c>
-      <c r="I50" s="3" t="n">
+        <v>45982.78814814815</v>
+      </c>
+      <c r="I50" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>15:29:45</t>
+          <t>18:54:56</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
@@ -3407,9 +3460,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575200580785455892', 'createTime': 1763738985, 'createTimeISO': '2025-11-21T15:29:45.000Z', 'text': 'yo creo que los jojo mochis vienen con tarjeta incluida en el yogo premio para identificarlos, asi como los mochizipis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575254072488575751', 'createTime': 1763751296, 'createTimeISO': '2025-11-21T18:54:56.000Z', 'text': 'Hola alpina veo todos sus videos🤗', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7324904439793533957', 'uniqueId': 'luz.dary.sarmient0',</t>
         </is>
       </c>
     </row>
@@ -3435,28 +3489,28 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>queremos parte 2 gabyy🥰💖🌟</t>
+          <t>cómo es navidad bajenle el precio</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1763734880</v>
+        <v>1763749917</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45982.59814814815</v>
-      </c>
-      <c r="I51" s="3" t="n">
+        <v>45982.7721875</v>
+      </c>
+      <c r="I51" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>14:21:20</t>
+          <t>18:31:57</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
@@ -3466,9 +3520,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575183096354849556', 'createTime': 1763734880, 'createTimeISO': '2025-11-21T14:21:20.000Z', 'text': 'queremos parte 2 gabyy🥰💖🌟', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail</t>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575248156511535890', 'createTime': 1763749917, 'createTimeISO': '2025-11-21T18:31:57.000Z', 'text': 'cómo es navidad bajenle el precio', 'diggCount': 47, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 12, 'uid': '7535542571990828050', 'uniqueId': 'eli762301', 'avata</t>
         </is>
       </c>
     </row>
@@ -3494,25 +3549,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>me encantaaaa😭💖</t>
+          <t>cuando van a decir los 5 ganadores 😳</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1763734729</v>
+        <v>1763748786</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45982.59640046296</v>
-      </c>
-      <c r="I52" s="3" t="n">
+        <v>45982.75909722222</v>
+      </c>
+      <c r="I52" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>14:18:49</t>
+          <t>18:13:06</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -3525,9 +3580,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575182341376328469', 'createTime': 1763734729, 'createTimeISO': '2025-11-21T14:18:49.000Z', 'text': 'me encantaaaa😭💖', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https:</t>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575243307303912199', 'createTime': 1763748786, 'createTimeISO': '2025-11-21T18:13:06.000Z', 'text': 'cuando van a decir los 5 ganadores 😳', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7541216473755354119', 'uniqueId': 'fanny_s4nchzzzz',</t>
         </is>
       </c>
     </row>
@@ -3553,28 +3609,28 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>yo fui al exito a ver y no habían 😭😭😭😭</t>
+          <t>ya quisiera tener todos los Mochis de todas las colecciones 😭😭😭</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1763723898</v>
+        <v>1763746713</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45982.47104166666</v>
-      </c>
-      <c r="I53" s="3" t="n">
+        <v>45982.73510416667</v>
+      </c>
+      <c r="I53" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>11:18:18</t>
+          <t>17:38:33</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
@@ -3584,9 +3640,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575136414498865936', 'createTime': 1763723898, 'createTimeISO': '2025-11-21T11:18:18.000Z', 'text': 'yo fui al exito a ver y no habían 😭😭😭😭', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7386134970722747398', 'uniqueId': 'gus_tuenano', '</t>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575234409000321810', 'createTime': 1763746713, 'createTimeISO': '2025-11-21T17:38:33.000Z', 'text': 'ya quisiera tener todos los Mochis de todas las colecciones 😭😭😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7437700706754446391', 'un</t>
         </is>
       </c>
     </row>
@@ -3612,28 +3669,28 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>no alcanze a completar la colección de mochisauros tengo 34</t>
+          <t>gaby los jojo mochis tambien son de silicona estirables asi como los mochis normales????</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1763706454</v>
+        <v>1763746422</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45982.26914351852</v>
-      </c>
-      <c r="I54" s="3" t="n">
+        <v>45982.73173611111</v>
+      </c>
+      <c r="I54" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>06:27:34</t>
+          <t>17:33:42</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
@@ -3643,9 +3700,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575061462563062549', 'createTime': 1763706454, 'createTimeISO': '2025-11-21T06:27:34.000Z', 'text': 'no alcanze a completar la colección de mochisauros tengo 34', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7518647639062184978', 'unique</t>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575232369352606485', 'createTime': 1763746422, 'createTimeISO': '2025-11-21T17:33:42.000Z', 'text': 'gaby los jojo mochis tambien son de silicona estirables asi como los mochis normales????', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '</t>
         </is>
       </c>
     </row>
@@ -3671,28 +3729,28 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>yo tengo casi todos los de dinosaurios los coleccióno como si tuviera 8 y tengo 18</t>
+          <t>en dónde se encuentran?</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1763703025</v>
+        <v>1763746050</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45982.22945601852</v>
-      </c>
-      <c r="I55" s="3" t="n">
+        <v>45982.72743055555</v>
+      </c>
+      <c r="I55" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>05:30:25</t>
+          <t>17:27:30</t>
         </is>
       </c>
       <c r="K55" t="n">
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
@@ -3702,9 +3760,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575046732636177163', 'createTime': 1763703025, 'createTimeISO': '2025-11-21T05:30:25.000Z', 'text': 'yo tengo casi todos los de dinosaurios los coleccióno como si tuviera 8 y tengo 18', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '717193</t>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575231567736619784', 'createTime': 1763746050, 'createTimeISO': '2025-11-21T17:27:30.000Z', 'text': 'en dónde se encuentran?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7197504067588178949', 'uniqueId': 'angelina.rodrguez432', 'avatar</t>
         </is>
       </c>
     </row>
@@ -3730,28 +3789,28 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>y ahora en donde se consiguen y cuantos logos son? y los logos deben de tener la imagencita de jojo mochis? ✨💙🎅</t>
+          <t>se aplastan??✨</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1763698541</v>
+        <v>1763740010</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45982.17755787037</v>
-      </c>
-      <c r="I56" s="3" t="n">
+        <v>45982.65752314815</v>
+      </c>
+      <c r="I56" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>04:15:41</t>
+          <t>15:46:50</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
@@ -3761,9 +3820,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575027515658158856', 'createTime': 1763698541, 'createTimeISO': '2025-11-21T04:15:41.000Z', 'text': 'y ahora en donde se consiguen y cuantos logos son? y los logos deben de tener la imagencita de jojo mochis? ✨💙🎅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCom</t>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575205631398527762', 'createTime': 1763740010, 'createTimeISO': '2025-11-21T15:46:50.000Z', 'text': 'se aplastan??✨', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6967892470807299073', 'uniqueId': '12m_guada', 'avatarThumbnail': 'https:/</t>
         </is>
       </c>
     </row>
@@ -3789,28 +3849,28 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gaby gaby quiero todos los jojo mochis en navidad, ame la estrellita Lucerita, los quiero todos todos💖😍💖</t>
+          <t>yo creo que los jojo mochis vienen con tarjeta incluida en el yogo premio para identificarlos, asi como los mochizipis</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1763698137</v>
+        <v>1763738985</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45982.17288194445</v>
-      </c>
-      <c r="I57" s="3" t="n">
+        <v>45982.64565972222</v>
+      </c>
+      <c r="I57" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>04:08:57</t>
+          <t>15:29:45</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
@@ -3820,9 +3880,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575025770914956039', 'createTime': 1763698137, 'createTimeISO': '2025-11-21T04:08:57.000Z', 'text': 'Gaby gaby quiero todos los jojo mochis en navidad, ame la estrellita Lucerita, los quiero todos todos💖😍💖', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575200580785455892', 'createTime': 1763738985, 'createTimeISO': '2025-11-21T15:29:45.000Z', 'text': 'yo creo que los jojo mochis vienen con tarjeta incluida en el yogo premio para identificarlos, asi como los mochizipis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'r</t>
         </is>
       </c>
     </row>
@@ -3848,454 +3909,462 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
+          <t>queremos parte 2 gabyy🥰💖🌟</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1763734880</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>45982.59814814815</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>14:21:20</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575183096354849556', 'createTime': 1763734880, 'createTimeISO': '2025-11-21T14:21:20.000Z', 'text': 'queremos parte 2 gabyy🥰💖🌟', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>me encantaaaa😭💖</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1763734729</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>45982.59640046296</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>14:18:49</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575182341376328469', 'createTime': 1763734729, 'createTimeISO': '2025-11-21T14:18:49.000Z', 'text': 'me encantaaaa😭💖', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7467024639018468360', 'uniqueId': 'leidy_y22', 'avatarThumbnail': 'https:</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>yo fui al exito a ver y no habían 😭😭😭😭</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1763723898</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>45982.47104166666</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>11:18:18</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575136414498865936', 'createTime': 1763723898, 'createTimeISO': '2025-11-21T11:18:18.000Z', 'text': 'yo fui al exito a ver y no habían 😭😭😭😭', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7386134970722747398', 'uniqueId': 'gus_tuenano', '</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>no alcanze a completar la colección de mochisauros tengo 34</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1763706454</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>45982.26914351852</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>06:27:34</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575061462563062549', 'createTime': 1763706454, 'createTimeISO': '2025-11-21T06:27:34.000Z', 'text': 'no alcanze a completar la colección de mochisauros tengo 34', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7518647639062184978', 'unique</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>yo tengo casi todos los de dinosaurios los coleccióno como si tuviera 8 y tengo 18</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1763703025</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>45982.22945601852</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>05:30:25</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575046732636177163', 'createTime': 1763703025, 'createTimeISO': '2025-11-21T05:30:25.000Z', 'text': 'yo tengo casi todos los de dinosaurios los coleccióno como si tuviera 8 y tengo 18', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '717193</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>y ahora en donde se consiguen y cuantos logos son? y los logos deben de tener la imagencita de jojo mochis? ✨💙🎅</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1763698541</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45982.17755787037</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>04:15:41</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575027515658158856', 'createTime': 1763698541, 'createTimeISO': '2025-11-21T04:15:41.000Z', 'text': 'y ahora en donde se consiguen y cuantos logos son? y los logos deben de tener la imagencita de jojo mochis? ✨💙🎅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCom</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Gaby gaby quiero todos los jojo mochis en navidad, ame la estrellita Lucerita, los quiero todos todos💖😍💖</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1763698137</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45982.17288194445</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>04:08:57</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>8</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7575025770914956039', 'createTime': 1763698137, 'createTimeISO': '2025-11-21T04:08:57.000Z', 'text': 'Gaby gaby quiero todos los jojo mochis en navidad, ame la estrellita Lucerita, los quiero todos todos💖😍💖', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTot</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>que lindooooooos
 pero espero que yo encuentre una tienda donde los vendas</t>
         </is>
       </c>
-      <c r="G58" t="n">
+      <c r="G65" t="n">
         <v>1763690044</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H65" s="2" t="n">
         <v>45982.07921296296</v>
       </c>
-      <c r="I58" s="3" t="n">
+      <c r="I65" s="2" t="n">
         <v>45982</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>01:54:04</t>
         </is>
       </c>
-      <c r="K58" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574990995876823829', 'createTime': 1763690044, 'createTimeISO': '2025-11-21T01:54:04.000Z', 'text': 'que lindooooooos\npero espero que yo encuentre una tienda donde los vendas', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '75232929957783</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>tengo mochis desde la primera edicion</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>1763687261</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>45982.04700231482</v>
-      </c>
-      <c r="I59" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>01:07:41</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>2</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574979028043236103', 'createTime': 1763687261, 'createTimeISO': '2025-11-21T01:07:41.000Z', 'text': 'tengo mochis desde la primera edicion', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7220124989693281286', 'uniqueId': 's_antiago47', 'a</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>alpina soy su pan número uno</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1763687238</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <v>45982.04673611111</v>
-      </c>
-      <c r="I60" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>01:07:18</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574978894698201874', 'createTime': 1763687238, 'createTimeISO': '2025-11-21T01:07:18.000Z', 'text': 'alpina soy su pan número uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7220124989693281286', 'uniqueId': 's_antiago47', 'avatarThum</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>No puedo con tanta ternuraaaaa 💘😭</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>1763686188</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>45982.03458333333</v>
-      </c>
-      <c r="I61" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>00:49:48</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>2</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574974413835207431', 'createTime': 1763686188, 'createTimeISO': '2025-11-21T00:49:48.000Z', 'text': 'No puedo con tanta ternuraaaaa 💘😭', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarTh</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Ay me encanta cuando los sacan pliss me encantaron</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>1763685997</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>45982.03237268519</v>
-      </c>
-      <c r="I62" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>00:46:37</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574973584503767826', 'createTime': 1763685997, 'createTimeISO': '2025-11-21T00:46:37.000Z', 'text': 'Ay me encanta cuando los sacan pliss me encantaron', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7248665480003748869', 'uniqueId': 'mar</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>será que en mi tiendita habrá apenas con los mochisaurios y me salen con Jojo Mochis</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>1763685838</v>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>45982.03053240741</v>
-      </c>
-      <c r="I63" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>00:43:58</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="b">
-        <v>0</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574972891399570183', 'createTime': 1763685838, 'createTimeISO': '2025-11-21T00:43:58.000Z', 'text': 'será que en mi tiendita habrá apenas con los mochisaurios y me salen con Jojo Mochis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7279</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>y los mochis saurios😶</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>1763684346</v>
-      </c>
-      <c r="H64" s="2" t="n">
-        <v>45982.01326388889</v>
-      </c>
-      <c r="I64" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>00:19:06</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>3</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="b">
-        <v>0</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574966512151216914', 'createTime': 1763684346, 'createTimeISO': '2025-11-21T00:19:06.000Z', 'text': 'y los mochis saurios😶', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6961098909117907974', 'uniqueId': 'clara0_7', 'avatarThumbnail': 'h</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Gabi una pregunta y las cajas de mochisaurios</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>1763684282</v>
-      </c>
-      <c r="H65" s="2" t="n">
-        <v>45982.01252314815</v>
-      </c>
-      <c r="I65" s="3" t="n">
-        <v>45982</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>00:18:02</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>2</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2</v>
-      </c>
-      <c r="M65" t="b">
-        <v>0</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574965142023406352', 'createTime': 1763684282, 'createTimeISO': '2025-11-21T00:18:02.000Z', 'text': 'Gabi una pregunta y las cajas de mochisaurios', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7389041558085485573', 'uniqueId': 'luci1939</t>
         </is>
       </c>
     </row>
@@ -4321,28 +4390,28 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>no estoy ansiosa por la navida por que nadie me quiere</t>
+          <t>tengo mochis desde la primera edicion</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1763682152</v>
+        <v>1763687261</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45981.98787037037</v>
-      </c>
-      <c r="I66" s="3" t="n">
-        <v>45981</v>
+        <v>45982.04700231482</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>45982</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>23:42:32</t>
+          <t>01:07:41</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="b">
         <v>0</v>
@@ -4352,9 +4421,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574957066881155847', 'createTime': 1763682152, 'createTimeISO': '2025-11-20T23:42:32.000Z', 'text': 'no estoy ansiosa por la navida por que nadie me quiere', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7567941303678780434', 'uniqueId': </t>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574979028043236103', 'createTime': 1763687261, 'createTimeISO': '2025-11-21T01:07:41.000Z', 'text': 'tengo mochis desde la primera edicion', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7220124989693281286', 'uniqueId': 's_antiago47', 'a</t>
         </is>
       </c>
     </row>
@@ -4380,28 +4450,28 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ya los sacaron?</t>
+          <t>alpina soy su pan número uno</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1763681784</v>
+        <v>1763687238</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45981.98361111111</v>
-      </c>
-      <c r="I67" s="3" t="n">
-        <v>45981</v>
+        <v>45982.04673611111</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>45982</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>23:36:24</t>
+          <t>01:07:18</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
@@ -4411,9 +4481,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574955472089596679', 'createTime': 1763681784, 'createTimeISO': '2025-11-20T23:36:24.000Z', 'text': 'ya los sacaron?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6947333237535769606', 'uniqueId': 'mariacamacho902', 'avatarThumbnail': '</t>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574978894698201874', 'createTime': 1763687238, 'createTimeISO': '2025-11-21T01:07:18.000Z', 'text': 'alpina soy su pan número uno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7220124989693281286', 'uniqueId': 's_antiago47', 'avatarThum</t>
         </is>
       </c>
     </row>
@@ -4439,28 +4510,28 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>oye alpina y las cajas quienes se la ganaron??🤨💗</t>
+          <t>No puedo con tanta ternuraaaaa 💘😭</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1763680865</v>
+        <v>1763686188</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45981.97297453704</v>
-      </c>
-      <c r="I68" s="3" t="n">
-        <v>45981</v>
+        <v>45982.03458333333</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>45982</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>23:21:05</t>
+          <t>00:49:48</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="b">
         <v>0</v>
@@ -4470,9 +4541,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574951499878695688', 'createTime': 1763680865, 'createTimeISO': '2025-11-20T23:21:05.000Z', 'text': 'oye alpina y las cajas quienes se la ganaron??🤨💗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7465180798346675201', 'uniqueId': 'mafes</t>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574974413835207431', 'createTime': 1763686188, 'createTimeISO': '2025-11-21T00:49:48.000Z', 'text': 'No puedo con tanta ternuraaaaa 💘😭', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6781206829306807302', 'uniqueId': 'gaaaabs6', 'avatarTh</t>
         </is>
       </c>
     </row>
@@ -4498,28 +4570,28 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>cómo así que jojomochis, yo quería una colección de ilumimochisaurios 😞, pero están divinoss</t>
+          <t>Ay me encanta cuando los sacan pliss me encantaron</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1763680833</v>
+        <v>1763685997</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45981.97260416667</v>
-      </c>
-      <c r="I69" s="3" t="n">
-        <v>45981</v>
+        <v>45982.03237268519</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>45982</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>23:20:33</t>
+          <t>00:46:37</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
@@ -4529,9 +4601,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574951405824672530', 'createTime': 1763680833, 'createTimeISO': '2025-11-20T23:20:33.000Z', 'text': 'cómo así que jojomochis, yo quería una colección de ilumimochisaurios 😞, pero están divinoss', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid</t>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574973584503767826', 'createTime': 1763685997, 'createTimeISO': '2025-11-21T00:46:37.000Z', 'text': 'Ay me encanta cuando los sacan pliss me encantaron', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7248665480003748869', 'uniqueId': 'mar</t>
         </is>
       </c>
     </row>
@@ -4557,25 +4630,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>me encantaaaa</t>
+          <t>será que en mi tiendita habrá apenas con los mochisaurios y me salen con Jojo Mochis</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1763678328</v>
+        <v>1763685838</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45981.94361111111</v>
-      </c>
-      <c r="I70" s="3" t="n">
-        <v>45981</v>
+        <v>45982.03053240741</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>45982</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>22:38:48</t>
+          <t>00:43:58</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4588,9 +4661,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574940611406988040', 'createTime': 1763678328, 'createTimeISO': '2025-11-20T22:38:48.000Z', 'text': 'me encantaaaa', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7181959209231598597', 'uniqueId': 'angelan789', 'avatarThumbnail': 'https:/</t>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574972891399570183', 'createTime': 1763685838, 'createTimeISO': '2025-11-21T00:43:58.000Z', 'text': 'será que en mi tiendita habrá apenas con los mochisaurios y me salen con Jojo Mochis', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7279</t>
         </is>
       </c>
     </row>
@@ -4616,28 +4690,28 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>primero los mochis después los ilomimochis después los mini ilomimochis después los mochisaurios y por último los jojo mochis</t>
+          <t>y los mochis saurios😶</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1763676829</v>
+        <v>1763684346</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>45981.92626157407</v>
-      </c>
-      <c r="I71" s="3" t="n">
-        <v>45981</v>
+        <v>45982.01326388889</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>45982</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>22:13:49</t>
+          <t>00:19:06</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" t="b">
         <v>0</v>
@@ -4647,9 +4721,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574934229462500114', 'createTime': 1763676829, 'createTimeISO': '2025-11-20T22:13:49.000Z', 'text': 'primero los mochis después los ilomimochis después los mini ilomimochis después los mochisaurios y por último los jojo mochis', 'diggCount': 13, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': </t>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574966512151216914', 'createTime': 1763684346, 'createTimeISO': '2025-11-21T00:19:06.000Z', 'text': 'y los mochis saurios😶', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6961098909117907974', 'uniqueId': 'clara0_7', 'avatarThumbnail': 'h</t>
         </is>
       </c>
     </row>
@@ -4675,28 +4750,28 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alpina tiene a la mejor practicante enserio! La está dando toda con este contenido</t>
+          <t>Gabi una pregunta y las cajas de mochisaurios</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1763673268</v>
+        <v>1763684282</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45981.88504629629</v>
-      </c>
-      <c r="I72" s="3" t="n">
-        <v>45981</v>
+        <v>45982.01252314815</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>45982</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>21:14:28</t>
+          <t>00:18:02</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
@@ -4706,9 +4781,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574918896474833685', 'createTime': 1763673268, 'createTimeISO': '2025-11-20T21:14:28.000Z', 'text': 'Alpina tiene a la mejor practicante enserio! La está dando toda con este contenido', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '131580</t>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574965142023406352', 'createTime': 1763684282, 'createTimeISO': '2025-11-21T00:18:02.000Z', 'text': 'Gabi una pregunta y las cajas de mochisaurios', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7389041558085485573', 'uniqueId': 'luci1939</t>
         </is>
       </c>
     </row>
@@ -4734,28 +4810,28 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Yo quiero la estrellitaaaaa 🥹</t>
+          <t>no estoy ansiosa por la navida por que nadie me quiere</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1763673133</v>
+        <v>1763682152</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45981.88348379629</v>
-      </c>
-      <c r="I73" s="3" t="n">
+        <v>45981.98787037037</v>
+      </c>
+      <c r="I73" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>21:12:13</t>
+          <t>23:42:32</t>
         </is>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M73" t="b">
         <v>0</v>
@@ -4765,9 +4841,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574918258480202512', 'createTime': 1763673133, 'createTimeISO': '2025-11-20T21:12:13.000Z', 'text': 'Yo quiero la estrellitaaaaa 🥹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThum</t>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574957066881155847', 'createTime': 1763682152, 'createTimeISO': '2025-11-20T23:42:32.000Z', 'text': 'no estoy ansiosa por la navida por que nadie me quiere', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7567941303678780434', 'uniqueId': </t>
         </is>
       </c>
     </row>
@@ -4793,28 +4870,28 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SON HERMOSOOOOOOS 😭</t>
+          <t>ya los sacaron?</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1763672478</v>
+        <v>1763681784</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>45981.87590277778</v>
-      </c>
-      <c r="I74" s="3" t="n">
+        <v>45981.98361111111</v>
+      </c>
+      <c r="I74" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>21:01:18</t>
+          <t>23:36:24</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
@@ -4824,9 +4901,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574915461081760519', 'createTime': 1763672478, 'createTimeISO': '2025-11-20T21:01:18.000Z', 'text': 'SON HERMOSOOOOOOS 😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357576032340231174', 'uniqueId': 'soy_geronimo2', 'avatarThumbnail':</t>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574955472089596679', 'createTime': 1763681784, 'createTimeISO': '2025-11-20T23:36:24.000Z', 'text': 'ya los sacaron?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '6947333237535769606', 'uniqueId': 'mariacamacho902', 'avatarThumbnail': '</t>
         </is>
       </c>
     </row>
@@ -4852,21 +4930,21 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>no he terminadooo😭</t>
+          <t>oye alpina y las cajas quienes se la ganaron??🤨💗</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1763672198</v>
+        <v>1763680865</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45981.87266203704</v>
-      </c>
-      <c r="I75" s="3" t="n">
+        <v>45981.97297453704</v>
+      </c>
+      <c r="I75" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>20:56:38</t>
+          <t>23:21:05</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -4883,9 +4961,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574914307466887943', 'createTime': 1763672198, 'createTimeISO': '2025-11-20T20:56:38.000Z', 'text': 'no he terminadooo😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7513756533764686849', 'uniqueId': 'elcoleccionista89', 'avatarThumbnai</t>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574951499878695688', 'createTime': 1763680865, 'createTimeISO': '2025-11-20T23:21:05.000Z', 'text': 'oye alpina y las cajas quienes se la ganaron??🤨💗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7465180798346675201', 'uniqueId': 'mafes</t>
         </is>
       </c>
     </row>
@@ -4911,28 +4990,28 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>eeee lo adivine😝🤪</t>
+          <t>cómo así que jojomochis, yo quería una colección de ilumimochisaurios 😞, pero están divinoss</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1763669496</v>
+        <v>1763680833</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>45981.84138888889</v>
-      </c>
-      <c r="I76" s="3" t="n">
+        <v>45981.97260416667</v>
+      </c>
+      <c r="I76" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>20:11:36</t>
+          <t>23:20:33</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76" t="b">
         <v>0</v>
@@ -4942,9 +5021,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574902669934117650', 'createTime': 1763669496, 'createTimeISO': '2025-11-20T20:11:36.000Z', 'text': 'eeee lo adivine😝🤪', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7505793601163674642', 'uniqueId': 'mariangel6169', 'avatarThumbnail': '</t>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574951405824672530', 'createTime': 1763680833, 'createTimeISO': '2025-11-20T23:20:33.000Z', 'text': 'cómo así que jojomochis, yo quería una colección de ilumimochisaurios 😞, pero están divinoss', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid</t>
         </is>
       </c>
     </row>
@@ -4970,25 +5050,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>apenas los bea me los llevo</t>
+          <t>me encantaaaa</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1763667788</v>
+        <v>1763678328</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>45981.82162037037</v>
-      </c>
-      <c r="I77" s="3" t="n">
+        <v>45981.94361111111</v>
+      </c>
+      <c r="I77" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>19:43:08</t>
+          <t>22:38:48</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -5001,9 +5081,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574895399094534919', 'createTime': 1763667788, 'createTimeISO': '2025-11-20T19:43:08.000Z', 'text': 'apenas los bea me los llevo', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526408780851135496', 'uniqueId': 'isabelalopez6035', 'avatar</t>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574940611406988040', 'createTime': 1763678328, 'createTimeISO': '2025-11-20T22:38:48.000Z', 'text': 'me encantaaaa', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7181959209231598597', 'uniqueId': 'angelan789', 'avatarThumbnail': 'https:/</t>
         </is>
       </c>
     </row>
@@ -5029,28 +5110,28 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>y qujen gano las cajas gabi♥</t>
+          <t>primero los mochis después los ilomimochis después los mini ilomimochis después los mochisaurios y por último los jojo mochis</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1763667763</v>
+        <v>1763676829</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>45981.82133101852</v>
-      </c>
-      <c r="I78" s="3" t="n">
+        <v>45981.92626157407</v>
+      </c>
+      <c r="I78" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>19:42:43</t>
+          <t>22:13:49</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" t="b">
         <v>0</v>
@@ -5060,9 +5141,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574895270854738706', 'createTime': 1763667763, 'createTimeISO': '2025-11-20T19:42:43.000Z', 'text': 'y qujen gano las cajas gabi♥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7526408780851135496', 'uniqueId': 'isabelalopez6035', 'avata</t>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574934229462500114', 'createTime': 1763676829, 'createTimeISO': '2025-11-20T22:13:49.000Z', 'text': 'primero los mochis después los ilomimochis después los mini ilomimochis después los mochisaurios y por último los jojo mochis', 'diggCount': 13, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': </t>
         </is>
       </c>
     </row>
@@ -5088,28 +5170,28 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>cuando van a salirrrr</t>
+          <t>Alpina tiene a la mejor practicante enserio! La está dando toda con este contenido</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1763666136</v>
+        <v>1763673268</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>45981.8025</v>
-      </c>
-      <c r="I79" s="3" t="n">
+        <v>45981.88504629629</v>
+      </c>
+      <c r="I79" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>19:15:36</t>
+          <t>21:14:28</t>
         </is>
       </c>
       <c r="K79" t="n">
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="b">
         <v>0</v>
@@ -5119,9 +5201,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574888326323323669', 'createTime': 1763666136, 'createTimeISO': '2025-11-20T19:15:36.000Z', 'text': 'cuando van a salirrrr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468791169935606792', 'uniqueId': 'miasofia1488', 'avatarThumbnail'</t>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574918896474833685', 'createTime': 1763673268, 'createTimeISO': '2025-11-20T21:14:28.000Z', 'text': 'Alpina tiene a la mejor practicante enserio! La está dando toda con este contenido', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '131580</t>
         </is>
       </c>
     </row>
@@ -5147,28 +5230,28 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>alpina ustedes me adoptaron a los mochis ya no voy a poder usar amo Los Mochis 😜😜😜😍</t>
+          <t>Yo quiero la estrellitaaaaa 🥹</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1763665828</v>
+        <v>1763673133</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>45981.79893518519</v>
-      </c>
-      <c r="I80" s="3" t="n">
+        <v>45981.88348379629</v>
+      </c>
+      <c r="I80" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>19:10:28</t>
+          <t>21:12:13</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M80" t="b">
         <v>0</v>
@@ -5178,9 +5261,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574886990689714962', 'createTime': 1763665828, 'createTimeISO': '2025-11-20T19:10:28.000Z', 'text': 'alpina ustedes me adoptaron a los mochis ya no voy a poder usar amo Los Mochis 😜😜😜😍', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '75126</t>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574918258480202512', 'createTime': 1763673133, 'createTimeISO': '2025-11-20T21:12:13.000Z', 'text': 'Yo quiero la estrellitaaaaa 🥹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '282408726983028736', 'uniqueId': 'wanna_juana', 'avatarThum</t>
         </is>
       </c>
     </row>
@@ -5206,28 +5290,28 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>no me gustan me encantan quisiera un paquete de esos</t>
+          <t>SON HERMOSOOOOOOS 😭</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1763664837</v>
+        <v>1763672478</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>45981.78746527778</v>
-      </c>
-      <c r="I81" s="3" t="n">
+        <v>45981.87590277778</v>
+      </c>
+      <c r="I81" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>18:53:57</t>
+          <t>21:01:18</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81" t="b">
         <v>0</v>
@@ -5237,9 +5321,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574882708586988295', 'createTime': 1763664837, 'createTimeISO': '2025-11-20T18:53:57.000Z', 'text': 'no me gustan me encantan quisiera un paquete de esos', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7510079851095016466', 'uniqueId': 'a</t>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574915461081760519', 'createTime': 1763672478, 'createTimeISO': '2025-11-20T21:01:18.000Z', 'text': 'SON HERMOSOOOOOOS 😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357576032340231174', 'uniqueId': 'soy_geronimo2', 'avatarThumbnail':</t>
         </is>
       </c>
     </row>
@@ -5265,28 +5350,28 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ayyyyy no estos me gustan masssssssss 😍😍😍😍</t>
+          <t>no he terminadooo😭</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1763664442</v>
+        <v>1763672198</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>45981.78289351852</v>
-      </c>
-      <c r="I82" s="3" t="n">
+        <v>45981.87266203704</v>
+      </c>
+      <c r="I82" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>18:47:22</t>
+          <t>20:56:38</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" t="b">
         <v>0</v>
@@ -5296,9 +5381,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574881039133213448', 'createTime': 1763664442, 'createTimeISO': '2025-11-20T18:47:22.000Z', 'text': 'Ayyyyy no estos me gustan masssssssss 😍😍😍😍', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6775204820329579525', 'uniqueId': 'danivalenci</t>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574914307466887943', 'createTime': 1763672198, 'createTimeISO': '2025-11-20T20:56:38.000Z', 'text': 'no he terminadooo😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7513756533764686849', 'uniqueId': 'elcoleccionista89', 'avatarThumbnai</t>
         </is>
       </c>
     </row>
@@ -5324,25 +5410,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cuando mencionan los ganadores de las cajistas?</t>
+          <t>eeee lo adivine😝🤪</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1763663551</v>
+        <v>1763669496</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>45981.77258101852</v>
-      </c>
-      <c r="I83" s="3" t="n">
+        <v>45981.84138888889</v>
+      </c>
+      <c r="I83" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>18:32:31</t>
+          <t>20:11:36</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L83" t="n">
         <v>2</v>
@@ -5355,9 +5441,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574877205303608081', 'createTime': 1763663551, 'createTimeISO': '2025-11-20T18:32:31.000Z', 'text': 'Cuando mencionan los ganadores de las cajistas?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7451359037428892677', 'uniqueId': 'lariss</t>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574902669934117650', 'createTime': 1763669496, 'createTimeISO': '2025-11-20T20:11:36.000Z', 'text': 'eeee lo adivine😝🤪', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7505793601163674642', 'uniqueId': 'mariangel6169', 'avatarThumbnail': '</t>
         </is>
       </c>
     </row>
@@ -5383,21 +5470,21 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ya no salen mochisaurios😁</t>
+          <t>apenas los bea me los llevo</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1763663409</v>
+        <v>1763667788</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>45981.7709375</v>
-      </c>
-      <c r="I84" s="3" t="n">
+        <v>45981.82162037037</v>
+      </c>
+      <c r="I84" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>18:30:09</t>
+          <t>19:43:08</t>
         </is>
       </c>
       <c r="K84" t="n">
@@ -5414,9 +5501,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574876620259853077', 'createTime': 1763663409, 'createTimeISO': '2025-11-20T18:30:09.000Z', 'text': 'ya no salen mochisaurios😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503244431244477448', 'uniqueId': 'user771255817663', 'avatarTh</t>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574895399094534919', 'createTime': 1763667788, 'createTimeISO': '2025-11-20T19:43:08.000Z', 'text': 'apenas los bea me los llevo', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526408780851135496', 'uniqueId': 'isabelalopez6035', 'avatar</t>
         </is>
       </c>
     </row>
@@ -5442,28 +5530,28 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>los van a sacar?</t>
+          <t>y qujen gano las cajas gabi♥</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1763661000</v>
+        <v>1763667763</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>45981.74305555555</v>
-      </c>
-      <c r="I85" s="3" t="n">
+        <v>45981.82133101852</v>
+      </c>
+      <c r="I85" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>17:50:00</t>
+          <t>19:42:43</t>
         </is>
       </c>
       <c r="K85" t="n">
         <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M85" t="b">
         <v>0</v>
@@ -5473,9 +5561,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574865298886820628', 'createTime': 1763661000, 'createTimeISO': '2025-11-20T17:50:00.000Z', 'text': 'los van a sacar?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7364943442453447685', 'uniqueId': 'chocorramo_123', 'avatarThumbnail': '</t>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574895270854738706', 'createTime': 1763667763, 'createTimeISO': '2025-11-20T19:42:43.000Z', 'text': 'y qujen gano las cajas gabi♥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7526408780851135496', 'uniqueId': 'isabelalopez6035', 'avata</t>
         </is>
       </c>
     </row>
@@ -5501,28 +5590,28 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Que divinosss😍😭</t>
+          <t>cuando van a salirrrr</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1763660737</v>
+        <v>1763666136</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>45981.74001157407</v>
-      </c>
-      <c r="I86" s="3" t="n">
+        <v>45981.8025</v>
+      </c>
+      <c r="I86" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>17:45:37</t>
+          <t>19:15:36</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="b">
         <v>0</v>
@@ -5532,9 +5621,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574865129906619154', 'createTime': 1763660737, 'createTimeISO': '2025-11-20T17:45:37.000Z', 'text': 'Que divinosss😍😭', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6760311129178735621', 'uniqueId': 'dosydosdoss', 'avatarThumbnail': 'http</t>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574888326323323669', 'createTime': 1763666136, 'createTimeISO': '2025-11-20T19:15:36.000Z', 'text': 'cuando van a salirrrr', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7468791169935606792', 'uniqueId': 'miasofia1488', 'avatarThumbnail'</t>
         </is>
       </c>
     </row>
@@ -5560,28 +5650,28 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Los ne se sito</t>
+          <t>alpina ustedes me adoptaron a los mochis ya no voy a poder usar amo Los Mochis 😜😜😜😍</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1763660544</v>
+        <v>1763665828</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>45981.73777777778</v>
-      </c>
-      <c r="I87" s="3" t="n">
+        <v>45981.79893518519</v>
+      </c>
+      <c r="I87" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>17:42:24</t>
+          <t>19:10:28</t>
         </is>
       </c>
       <c r="K87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87" t="b">
         <v>0</v>
@@ -5591,9 +5681,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574864285551477511', 'createTime': 1763660544, 'createTimeISO': '2025-11-20T17:42:24.000Z', 'text': 'Los ne se sito', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https:/</t>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574886990689714962', 'createTime': 1763665828, 'createTimeISO': '2025-11-20T19:10:28.000Z', 'text': 'alpina ustedes me adoptaron a los mochis ya no voy a poder usar amo Los Mochis 😜😜😜😍', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '75126</t>
         </is>
       </c>
     </row>
@@ -5619,28 +5710,28 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Porfaaaa</t>
+          <t>no me gustan me encantan quisiera un paquete de esos</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1763660519</v>
+        <v>1763664837</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>45981.73748842593</v>
-      </c>
-      <c r="I88" s="3" t="n">
+        <v>45981.78746527778</v>
+      </c>
+      <c r="I88" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>17:41:59</t>
+          <t>18:53:57</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M88" t="b">
         <v>0</v>
@@ -5650,9 +5741,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574864194367357704', 'createTime': 1763660519, 'createTimeISO': '2025-11-20T17:41:59.000Z', 'text': 'Porfaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https://p16-c</t>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574882708586988295', 'createTime': 1763664837, 'createTimeISO': '2025-11-20T18:53:57.000Z', 'text': 'no me gustan me encantan quisiera un paquete de esos', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7510079851095016466', 'uniqueId': 'a</t>
         </is>
       </c>
     </row>
@@ -5678,25 +5770,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>que colección saldrá después</t>
+          <t>Ayyyyy no estos me gustan masssssssss 😍😍😍😍</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1763660298</v>
+        <v>1763664442</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45981.73493055555</v>
-      </c>
-      <c r="I89" s="3" t="n">
+        <v>45981.78289351852</v>
+      </c>
+      <c r="I89" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>17:38:18</t>
+          <t>18:47:22</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
@@ -5709,9 +5801,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574863255433741074', 'createTime': 1763660298, 'createTimeISO': '2025-11-20T17:38:18.000Z', 'text': 'que colección saldrá después', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumb</t>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574881039133213448', 'createTime': 1763664442, 'createTimeISO': '2025-11-20T18:47:22.000Z', 'text': 'Ayyyyy no estos me gustan masssssssss 😍😍😍😍', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6775204820329579525', 'uniqueId': 'danivalenci</t>
         </is>
       </c>
     </row>
@@ -5737,28 +5830,28 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>amooooo ya quiero</t>
+          <t>Cuando mencionan los ganadores de las cajistas?</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1763660229</v>
+        <v>1763663551</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>45981.73413194445</v>
-      </c>
-      <c r="I90" s="3" t="n">
+        <v>45981.77258101852</v>
+      </c>
+      <c r="I90" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>17:37:09</t>
+          <t>18:32:31</t>
         </is>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M90" t="b">
         <v>0</v>
@@ -5768,9 +5861,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862937199837959', 'createTime': 1763660229, 'createTimeISO': '2025-11-20T17:37:09.000Z', 'text': 'amooooo ya quiero', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'htt</t>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574877205303608081', 'createTime': 1763663551, 'createTimeISO': '2025-11-20T18:32:31.000Z', 'text': 'Cuando mencionan los ganadores de las cajistas?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7451359037428892677', 'uniqueId': 'lariss</t>
         </is>
       </c>
     </row>
@@ -5796,25 +5890,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Porfa</t>
+          <t>ya no salen mochisaurios😁</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1763660142</v>
+        <v>1763663409</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>45981.733125</v>
-      </c>
-      <c r="I91" s="3" t="n">
+        <v>45981.7709375</v>
+      </c>
+      <c r="I91" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>17:35:42</t>
+          <t>18:30:09</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -5827,9 +5921,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862596455088914', 'createTime': 1763660142, 'createTimeISO': '2025-11-20T17:35:42.000Z', 'text': 'Porfa', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https://p16-comm</t>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574876620259853077', 'createTime': 1763663409, 'createTimeISO': '2025-11-20T18:30:09.000Z', 'text': 'ya no salen mochisaurios😁', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503244431244477448', 'uniqueId': 'user771255817663', 'avatarTh</t>
         </is>
       </c>
     </row>
@@ -5855,28 +5950,28 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Los quiero conocer a ustedes</t>
+          <t>los van a sacar?</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1763660134</v>
+        <v>1763661000</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>45981.73303240741</v>
-      </c>
-      <c r="I92" s="3" t="n">
+        <v>45981.74305555555</v>
+      </c>
+      <c r="I92" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>17:35:34</t>
+          <t>17:50:00</t>
         </is>
       </c>
       <c r="K92" t="n">
         <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M92" t="b">
         <v>0</v>
@@ -5886,9 +5981,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862530805547783', 'createTime': 1763660134, 'createTimeISO': '2025-11-20T17:35:34.000Z', 'text': 'Los quiero conocer a ustedes', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbn</t>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574865298886820628', 'createTime': 1763661000, 'createTimeISO': '2025-11-20T17:50:00.000Z', 'text': 'los van a sacar?', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7364943442453447685', 'uniqueId': 'chocorramo_123', 'avatarThumbnail': '</t>
         </is>
       </c>
     </row>
@@ -5914,28 +6010,28 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Los necesito 🥺🥺🥺🥺</t>
+          <t>Que divinosss😍😭</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1763660052</v>
+        <v>1763660737</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>45981.73208333334</v>
-      </c>
-      <c r="I93" s="3" t="n">
+        <v>45981.74001157407</v>
+      </c>
+      <c r="I93" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>17:34:12</t>
+          <t>17:45:37</t>
         </is>
       </c>
       <c r="K93" t="n">
         <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="b">
         <v>0</v>
@@ -5945,9 +6041,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862194698388232', 'createTime': 1763660052, 'createTimeISO': '2025-11-20T17:34:12.000Z', 'text': 'Los necesito 🥺🥺🥺🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'http</t>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574865129906619154', 'createTime': 1763660737, 'createTimeISO': '2025-11-20T17:45:37.000Z', 'text': 'Que divinosss😍😭', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6760311129178735621', 'uniqueId': 'dosydosdoss', 'avatarThumbnail': 'http</t>
         </is>
       </c>
     </row>
@@ -5973,28 +6070,28 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>son lindos 😭😭</t>
+          <t>Los ne se sito</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1763660009</v>
+        <v>1763660544</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45981.73158564815</v>
-      </c>
-      <c r="I94" s="3" t="n">
+        <v>45981.73777777778</v>
+      </c>
+      <c r="I94" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>17:33:29</t>
+          <t>17:42:24</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" t="b">
         <v>0</v>
@@ -6004,9 +6101,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862020227810068', 'createTime': 1763660009, 'createTimeISO': '2025-11-20T17:33:29.000Z', 'text': 'son lindos 😭😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7321136002860008454', 'uniqueId': 'gatobias.y.titosaurio', 'avatarThumbnail</t>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574864285551477511', 'createTime': 1763660544, 'createTimeISO': '2025-11-20T17:42:24.000Z', 'text': 'Los ne se sito', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https:/</t>
         </is>
       </c>
     </row>
@@ -6032,25 +6130,25 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>quien ganó el sorteo ??</t>
+          <t>Porfaaaa</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1763659935</v>
+        <v>1763660519</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45981.73072916667</v>
-      </c>
-      <c r="I95" s="3" t="n">
+        <v>45981.73748842593</v>
+      </c>
+      <c r="I95" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>17:32:15</t>
+          <t>17:41:59</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -6063,9 +6161,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861715582599954', 'createTime': 1763659935, 'createTimeISO': '2025-11-20T17:32:15.000Z', 'text': 'quien ganó el sorteo ??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430279079477986309', 'uniqueId': 'user1228124057812', 'avatarThu</t>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574864194367357704', 'createTime': 1763660519, 'createTimeISO': '2025-11-20T17:41:59.000Z', 'text': 'Porfaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https://p16-c</t>
         </is>
       </c>
     </row>
@@ -6091,28 +6190,28 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Porfaaaa</t>
+          <t>que colección saldrá después</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1763659898</v>
+        <v>1763660298</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>45981.73030092593</v>
-      </c>
-      <c r="I96" s="3" t="n">
+        <v>45981.73493055555</v>
+      </c>
+      <c r="I96" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>17:31:38</t>
+          <t>17:38:18</t>
         </is>
       </c>
       <c r="K96" t="n">
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="b">
         <v>0</v>
@@ -6122,9 +6221,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861535194907410', 'createTime': 1763659898, 'createTimeISO': '2025-11-20T17:31:38.000Z', 'text': 'Porfaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https://p16-c</t>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574863255433741074', 'createTime': 1763660298, 'createTimeISO': '2025-11-20T17:38:18.000Z', 'text': 'que colección saldrá después', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumb</t>
         </is>
       </c>
     </row>
@@ -6150,28 +6250,28 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>cuando salen 🤨</t>
+          <t>amooooo ya quiero</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1763659892</v>
+        <v>1763660229</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>45981.73023148148</v>
-      </c>
-      <c r="I97" s="3" t="n">
+        <v>45981.73413194445</v>
+      </c>
+      <c r="I97" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>17:31:32</t>
+          <t>17:37:09</t>
         </is>
       </c>
       <c r="K97" t="n">
         <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="b">
         <v>0</v>
@@ -6181,9 +6281,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861525639365383', 'createTime': 1763659892, 'createTimeISO': '2025-11-20T17:31:32.000Z', 'text': 'cuando salen 🤨', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7503638663796933640', 'uniqueId': 'gorgojoconpan', 'avatarThumbnail': 'htt</t>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862937199837959', 'createTime': 1763660229, 'createTimeISO': '2025-11-20T17:37:09.000Z', 'text': 'amooooo ya quiero', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6887020420505109509', 'uniqueId': 'mari_a0131', 'avatarThumbnail': 'htt</t>
         </is>
       </c>
     </row>
@@ -6209,28 +6310,28 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Y ya te sigo🥺🥺🥺</t>
+          <t>Porfa</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1763659885</v>
+        <v>1763660142</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>45981.73015046296</v>
-      </c>
-      <c r="I98" s="3" t="n">
+        <v>45981.733125</v>
+      </c>
+      <c r="I98" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>17:31:25</t>
+          <t>17:35:42</t>
         </is>
       </c>
       <c r="K98" t="n">
         <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" t="b">
         <v>0</v>
@@ -6240,9 +6341,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861494857401106', 'createTime': 1763659885, 'createTimeISO': '2025-11-20T17:31:25.000Z', 'text': 'Y ya te sigo🥺🥺🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https:</t>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862596455088914', 'createTime': 1763660142, 'createTimeISO': '2025-11-20T17:35:42.000Z', 'text': 'Porfa', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https://p16-comm</t>
         </is>
       </c>
     </row>
@@ -6268,25 +6370,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>NAVIDAD</t>
+          <t>Los quiero conocer a ustedes</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1763659861</v>
+        <v>1763660134</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>45981.72987268519</v>
-      </c>
-      <c r="I99" s="3" t="n">
+        <v>45981.73303240741</v>
+      </c>
+      <c r="I99" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>17:31:01</t>
+          <t>17:35:34</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -6299,9 +6401,10 @@
           <t>https://www.tiktok.com/@</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861382295339783', 'createTime': 1763659861, 'createTimeISO': '2025-11-20T17:31:01.000Z', 'text': 'NAVIDAD', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503638663796933640', 'uniqueId': 'gorgojoconpan', 'avatarThumbnail': 'https://p1</t>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862530805547783', 'createTime': 1763660134, 'createTimeISO': '2025-11-20T17:35:34.000Z', 'text': 'Los quiero conocer a ustedes', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbn</t>
         </is>
       </c>
     </row>
@@ -6327,38 +6430,519 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
+          <t>Los necesito 🥺🥺🥺🥺</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1763660052</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>45981.73208333334</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>17:34:12</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862194698388232', 'createTime': 1763660052, 'createTimeISO': '2025-11-20T17:34:12.000Z', 'text': 'Los necesito 🥺🥺🥺🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'http</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>son lindos 😭😭</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1763660009</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>45981.73158564815</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>17:33:29</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>5</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574862020227810068', 'createTime': 1763660009, 'createTimeISO': '2025-11-20T17:33:29.000Z', 'text': 'son lindos 😭😭', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7321136002860008454', 'uniqueId': 'gatobias.y.titosaurio', 'avatarThumbnail</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>quien ganó el sorteo ??</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1763659935</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>45981.73072916667</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>17:32:15</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861715582599954', 'createTime': 1763659935, 'createTimeISO': '2025-11-20T17:32:15.000Z', 'text': 'quien ganó el sorteo ??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430279079477986309', 'uniqueId': 'user1228124057812', 'avatarThu</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Porfaaaa</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1763659898</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>45981.73030092593</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>17:31:38</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861535194907410', 'createTime': 1763659898, 'createTimeISO': '2025-11-20T17:31:38.000Z', 'text': 'Porfaaaa', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https://p16-c</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>cuando salen 🤨</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1763659892</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>45981.73023148148</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>17:31:32</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861525639365383', 'createTime': 1763659892, 'createTimeISO': '2025-11-20T17:31:32.000Z', 'text': 'cuando salen 🤨', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7503638663796933640', 'uniqueId': 'gorgojoconpan', 'avatarThumbnail': 'htt</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Y ya te sigo🥺🥺🥺</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1763659885</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>45981.73015046296</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>17:31:25</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861494857401106', 'createTime': 1763659885, 'createTimeISO': '2025-11-20T17:31:25.000Z', 'text': 'Y ya te sigo🥺🥺🥺', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6999062538463003654', 'uniqueId': 'viky34566', 'avatarThumbnail': 'https:</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NAVIDAD</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1763659861</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>45981.72987268519</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>17:31:01</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574861382295339783', 'createTime': 1763659861, 'createTimeISO': '2025-11-20T17:31:01.000Z', 'text': 'NAVIDAD', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7503638663796933640', 'uniqueId': 'gorgojoconpan', 'avatarThumbnail': 'https://p1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>😍 quieroooo miiiil</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1763659745</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>45981.72853009259</v>
+      </c>
+      <c r="I107" s="3" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>17:29:05</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574860878350156552', 'createTime': 1763659745, 'createTimeISO': '2025-11-20T17:29:05.000Z', 'text': '😍 quieroooo miiiil', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7170829604756112389', 'uniqueId': 'mia_cobaleda', 'avatarThumbnail': '</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfcQWN3t/</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>que bellas</t>
         </is>
       </c>
-      <c r="G100" t="n">
+      <c r="G108" t="n">
         <v>1763659675</v>
       </c>
-      <c r="H100" s="2" t="n">
+      <c r="H108" s="2" t="n">
         <v>45981.72771990741</v>
       </c>
-      <c r="I100" s="3" t="n">
+      <c r="I108" s="2" t="n">
         <v>45981</v>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>17:27:55</t>
         </is>
       </c>
-      <c r="K100" t="n">
+      <c r="K108" t="n">
         <v>4</v>
       </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="b">
-        <v>0</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
         <is>
           <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7574859079013633287', 'submittedVideoUrl': 'https://vt.tiktok.com/ZSfcQWN3t/', 'input': 'https://vt.tiktok.com/ZSfcQWN3t/', 'cid': '7574860565077476103', 'createTime': 1763659675, 'createTimeISO': '2025-11-20T17:27:55.000Z', 'text': 'que bellas', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7183931283180176389', 'uniqueId': 'lindaisa1215oficiaal', 'avatarThumbnail': '</t>
         </is>
@@ -6435,16 +7019,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E2" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45981.72771990741</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45994.96391203703</v>
+        <v>45995.87055555556</v>
       </c>
     </row>
   </sheetData>
@@ -6503,13 +7087,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="E2" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
